--- a/21-23/activitieslog.xlsx
+++ b/21-23/activitieslog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/216731e3d15358b8/CPD/21-23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/216731e3d15358b8/CPD-21-23/21-23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF77CB69-B064-7644-9776-D57C8C5B43E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{EF77CB69-B064-7644-9776-D57C8C5B43E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5EE7922-81B9-3D49-88AA-DD68F887670C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{1DD45303-C30C-114C-A477-04210E79D78E}"/>
   </bookViews>
@@ -33,11 +33,35 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Date </t>
+  </si>
+  <si>
+    <t>Source </t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -64,8 +88,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +405,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2425C33-E2CA-4B40-B1BC-E2166EF8E029}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>